--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.367553</v>
+        <v>16.57637</v>
       </c>
       <c r="H2">
-        <v>13.102659</v>
+        <v>49.72911</v>
       </c>
       <c r="I2">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="J2">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.442429333333334</v>
+        <v>4.331589999999999</v>
       </c>
       <c r="N2">
-        <v>7.327288</v>
+        <v>12.99477</v>
       </c>
       <c r="O2">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="P2">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="Q2">
-        <v>10.667439562088</v>
+        <v>71.80203852829999</v>
       </c>
       <c r="R2">
-        <v>96.00695605879201</v>
+        <v>646.2183467547</v>
       </c>
       <c r="S2">
-        <v>0.005042393278247232</v>
+        <v>0.02741568454443371</v>
       </c>
       <c r="T2">
-        <v>0.005042393278247233</v>
+        <v>0.02741568454443371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.367553</v>
+        <v>16.57637</v>
       </c>
       <c r="H3">
-        <v>13.102659</v>
+        <v>49.72911</v>
       </c>
       <c r="I3">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="J3">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>47.489728</v>
       </c>
       <c r="O3">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772905</v>
       </c>
       <c r="P3">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772904</v>
       </c>
       <c r="Q3">
-        <v>69.137967998528</v>
+        <v>262.4024341757867</v>
       </c>
       <c r="R3">
-        <v>622.2417119867521</v>
+        <v>2361.62190758208</v>
       </c>
       <c r="S3">
-        <v>0.03268083433502127</v>
+        <v>0.1001913386653985</v>
       </c>
       <c r="T3">
-        <v>0.03268083433502127</v>
+        <v>0.1001913386653985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.367553</v>
+        <v>16.57637</v>
       </c>
       <c r="H4">
-        <v>13.102659</v>
+        <v>49.72911</v>
       </c>
       <c r="I4">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="J4">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.129750999999999</v>
+        <v>9.129751000000001</v>
       </c>
       <c r="N4">
         <v>27.389253</v>
       </c>
       <c r="O4">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="P4">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="Q4">
-        <v>39.87467136930299</v>
+        <v>151.33813058387</v>
       </c>
       <c r="R4">
-        <v>358.872042323727</v>
+        <v>1362.04317525483</v>
       </c>
       <c r="S4">
-        <v>0.01884836316293461</v>
+        <v>0.0577844102016184</v>
       </c>
       <c r="T4">
-        <v>0.01884836316293461</v>
+        <v>0.0577844102016184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>160.353608</v>
       </c>
       <c r="I5">
-        <v>0.6923372340884159</v>
+        <v>0.5978024790674488</v>
       </c>
       <c r="J5">
-        <v>0.692337234088416</v>
+        <v>0.5978024790674489</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.442429333333334</v>
+        <v>4.331589999999999</v>
       </c>
       <c r="N5">
-        <v>7.327288</v>
+        <v>12.99477</v>
       </c>
       <c r="O5">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="P5">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="Q5">
-        <v>130.5507852950116</v>
+        <v>231.5286949589066</v>
       </c>
       <c r="R5">
-        <v>1174.957067655104</v>
+        <v>2083.75825463016</v>
       </c>
       <c r="S5">
-        <v>0.06171006626379359</v>
+        <v>0.08840302857802566</v>
       </c>
       <c r="T5">
-        <v>0.06171006626379361</v>
+        <v>0.08840302857802568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>160.353608</v>
       </c>
       <c r="I6">
-        <v>0.6923372340884159</v>
+        <v>0.5978024790674488</v>
       </c>
       <c r="J6">
-        <v>0.692337234088416</v>
+        <v>0.5978024790674489</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>47.489728</v>
       </c>
       <c r="O6">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772905</v>
       </c>
       <c r="P6">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772904</v>
       </c>
       <c r="Q6">
         <v>846.1276919709583</v>
@@ -818,10 +818,10 @@
         <v>7615.149227738624</v>
       </c>
       <c r="S6">
-        <v>0.3999561995829199</v>
+        <v>0.3230711879892192</v>
       </c>
       <c r="T6">
-        <v>0.3999561995829199</v>
+        <v>0.3230711879892192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>160.353608</v>
       </c>
       <c r="I7">
-        <v>0.6923372340884159</v>
+        <v>0.5978024790674488</v>
       </c>
       <c r="J7">
-        <v>0.692337234088416</v>
+        <v>0.5978024790674489</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.129750999999999</v>
+        <v>9.129751000000001</v>
       </c>
       <c r="N7">
         <v>27.389253</v>
       </c>
       <c r="O7">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="P7">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="Q7">
-        <v>487.9961709972026</v>
+        <v>487.9961709972027</v>
       </c>
       <c r="R7">
         <v>4391.965538974824</v>
       </c>
       <c r="S7">
-        <v>0.2306709682417024</v>
+        <v>0.186328262500204</v>
       </c>
       <c r="T7">
-        <v>0.2306709682417024</v>
+        <v>0.186328262500204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>58.155728</v>
       </c>
       <c r="I8">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="J8">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.442429333333334</v>
+        <v>4.331589999999999</v>
       </c>
       <c r="N8">
-        <v>7.327288</v>
+        <v>12.99477</v>
       </c>
       <c r="O8">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="P8">
-        <v>0.08913295894744963</v>
+        <v>0.1478799966101367</v>
       </c>
       <c r="Q8">
-        <v>47.34708532285156</v>
+        <v>83.96892328250665</v>
       </c>
       <c r="R8">
-        <v>426.123767905664</v>
+        <v>755.7203095425599</v>
       </c>
       <c r="S8">
-        <v>0.02238049940540881</v>
+        <v>0.03206128348767735</v>
       </c>
       <c r="T8">
-        <v>0.02238049940540881</v>
+        <v>0.03206128348767735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>58.155728</v>
       </c>
       <c r="I9">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="J9">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>47.489728</v>
       </c>
       <c r="O9">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772905</v>
       </c>
       <c r="P9">
-        <v>0.5776898596383203</v>
+        <v>0.5404313285772904</v>
       </c>
       <c r="Q9">
         <v>306.8666338179982</v>
@@ -1004,10 +1004,10 @@
         <v>2761.799704361984</v>
       </c>
       <c r="S9">
-        <v>0.1450528257203792</v>
+        <v>0.1171688019226727</v>
       </c>
       <c r="T9">
-        <v>0.1450528257203792</v>
+        <v>0.1171688019226726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>58.155728</v>
       </c>
       <c r="I10">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="J10">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.129750999999999</v>
+        <v>9.129751000000001</v>
       </c>
       <c r="N10">
         <v>27.389253</v>
       </c>
       <c r="O10">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="P10">
-        <v>0.3331771814142301</v>
+        <v>0.3116886748125729</v>
       </c>
       <c r="Q10">
-        <v>176.9824386212426</v>
+        <v>176.9824386212427</v>
       </c>
       <c r="R10">
         <v>1592.841947591184</v>
       </c>
       <c r="S10">
-        <v>0.08365785000959307</v>
+        <v>0.06757600211075052</v>
       </c>
       <c r="T10">
-        <v>0.08365785000959307</v>
+        <v>0.06757600211075052</v>
       </c>
     </row>
   </sheetData>
